--- a/出库/枕头的出库(更新4.13).xlsx
+++ b/出库/枕头的出库(更新4.13).xlsx
@@ -441,7 +441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,10 +1006,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K109" sqref="K109"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="2" customWidth="1"/>
@@ -1018,7 +1018,7 @@
     <col min="5" max="11" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11">
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>12.18</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>12.18</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>12.19</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>12.19</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
         <v>28</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
         <v>29</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
         <v>30</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
         <v>30</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:11">
       <c r="A38" s="11" t="s">
         <v>31</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
         <v>31</v>
       </c>
@@ -2523,7 +2523,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
         <v>31</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
         <v>31</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
         <v>34</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
         <v>34</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
         <v>36</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>36</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:11">
       <c r="A52" s="11" t="s">
         <v>38</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>38</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
         <v>38</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
         <v>39</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
         <v>40</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
         <v>40</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
         <v>41</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
         <v>42</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
         <v>42</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>43</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>43</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>44</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
         <v>44</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
         <v>45</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>45</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>47</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>47</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
         <v>48</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
         <v>48</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
         <v>49</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
         <v>49</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
         <v>50</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
         <v>50</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
         <v>51</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
         <v>51</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
         <v>52</v>
       </c>
@@ -4179,7 +4179,7 @@
       </c>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
         <v>52</v>
       </c>
@@ -4223,7 +4223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
         <v>53</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
         <v>53</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
         <v>54</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
         <v>54</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
         <v>55</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
         <v>55</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
         <v>56</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
         <v>56</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
         <v>57</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
         <v>57</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
         <v>58</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
         <v>58</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
         <v>59</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
         <v>59</v>
       </c>
@@ -4750,7 +4750,7 @@
       <c r="J97" s="17"/>
       <c r="K97" s="17"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
         <v>59</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
         <v>61</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
         <v>61</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:11">
       <c r="A101" s="11" t="s">
         <v>64</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:11">
       <c r="A102" s="23" t="s">
         <v>64</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
         <v>62</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
         <v>62</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:11">
       <c r="A105" s="11" t="s">
         <v>63</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:11">
       <c r="A106" s="11" t="s">
         <v>63</v>
       </c>
@@ -5068,7 +5068,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:11">
       <c r="A107" s="20" t="s">
         <v>65</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>13</v>
       </c>
       <c r="C107" s="19">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D107" s="19">
         <v>175</v>
@@ -5103,7 +5103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:11">
       <c r="A108" s="20" t="s">
         <v>65</v>
       </c>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="C108" s="22">
         <f>C106-C107</f>
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D108" s="22">
         <f t="shared" ref="D108:J108" si="49">D106-D107</f>
